--- a/data/gpt_examples/CProgramming.xlsx
+++ b/data/gpt_examples/CProgramming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\gpt_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78464C06-93A3-491D-96ED-C8C3CD59ED81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF6878-A44D-4857-9942-4070FF1774FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>User</t>
   </si>
@@ -28,64 +28,19 @@
     <t>Assistant</t>
   </si>
   <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
     <t>I can write a loop in C</t>
   </si>
   <si>
-    <t>Tell the user you are really happy they know so much. Then ask them to write a loop which prints out the numbers 1 to 10.</t>
-  </si>
-  <si>
-    <t>Get started with for loop</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>I don't know anything about loops</t>
   </si>
   <si>
-    <t>OK let’s help the user learn about variables first. Ask the user if they can you define a variable for you?</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>loops help in repeating things in your code</t>
   </si>
   <si>
-    <t>for loop</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
     <t>I think they help in reducing the amount of code I write</t>
   </si>
   <si>
     <t>For loops are used to achieve repetition in programming. Can you tell me why repetition is important</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>Loop function</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>Loop defination</t>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
   </si>
   <si>
     <t>for(initialization; condition; increment)</t>
@@ -102,228 +57,10 @@
 }</t>
   </si>
   <si>
-    <t>Check the code to see if it does write out the numbers 1 to 10. If you think it does then congratulate them on their great coding. Now ask them to copy the code into code runner and check it. Otherwise tell them where you think the error is in their code and ask them to try again.</t>
-  </si>
-  <si>
-    <t>printing 1 to 10</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>I think I missed  I used the ", " instead of the ";"</t>
-  </si>
-  <si>
-    <t>Can you identify the problem expecially in the defination of the loop?</t>
-  </si>
-  <si>
-    <t>1.2.1.1</t>
-  </si>
-  <si>
-    <t>Right, now correct your code to provide the right solution to the problem</t>
-  </si>
-  <si>
-    <t>I don't know how to define a loop</t>
-  </si>
-  <si>
-    <t>There seems to be a problem with your loop defination. Relook at your code and tell me if you can correct it</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>1.2.2.1</t>
-  </si>
-  <si>
-    <t>A loop has a header and a body</t>
-  </si>
-  <si>
-    <t>Tell me the difference components that entail loop defination</t>
-  </si>
-  <si>
-    <t>1.2.2.3</t>
-  </si>
-  <si>
-    <t>The start of the interation, the condition to end the loop and the increment of the iterating variable</t>
-  </si>
-  <si>
-    <t>What do you need to define in the header of the for loop</t>
-  </si>
-  <si>
-    <t>1.2.2.4</t>
-  </si>
-  <si>
-    <t>Could you write for me the syntax of a for loop in c</t>
-  </si>
-  <si>
-    <t>1.2.2.5</t>
-  </si>
-  <si>
-    <t>There is a missing start and the increment</t>
-  </si>
-  <si>
-    <t>Could you now look at the head of the solution provided and tell me  if all the component of the loop head are included</t>
-  </si>
-  <si>
-    <t>1.2.2.6</t>
-  </si>
-  <si>
-    <t>#include&lt;stdio.h&gt;
-int main()
-{
-    int i;
-    for(i=0;i&lt;=10;i++)
-    {
-        printf("%d ",i);
-    }
-}</t>
-  </si>
-  <si>
-    <t>Perfect, now can you provide me with the corrected code</t>
-  </si>
-  <si>
-    <t>I think it is perfect</t>
-  </si>
-  <si>
-    <t>Your printf statement seems to have a problem, can you indetify what the problem is</t>
-  </si>
-  <si>
-    <t>Integer display</t>
-  </si>
-  <si>
-    <t>1.2.3.1</t>
-  </si>
-  <si>
-    <t>I use the access specify %d and then provide the integer value</t>
-  </si>
-  <si>
-    <t>How do you display a integer using the printf statement</t>
-  </si>
-  <si>
-    <t>1.2.3.2</t>
-  </si>
-  <si>
-    <t>Can you correct your code now to display the integers</t>
-  </si>
-  <si>
-    <t>#include &lt;stdio.h&gt;
-int main()
-{
-    int i;
-    for(i=1;i&lt;20;i++)
-    {
-        if(i%2==0)
-        {
-            printf("%d ", i);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>Write a program to display only even numbers between 1 and 20</t>
-  </si>
-  <si>
-    <t>Loops and if statements</t>
-  </si>
-  <si>
-    <t>#include &lt;stdio.h&gt;
-int main()
-{
-    int i;
-    for(i=1;i&lt;20;i++)
-    {
-        if(i=="even")
-        {
-            printf("%d ", i);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>A number is even if when you divide by 2 there is no reminder</t>
-  </si>
-  <si>
-    <t>You seem to have a problem with your if statement. How do you know a number is even</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>You use the modulas operator</t>
-  </si>
-  <si>
-    <t>How do you check for the reminder of dividing two number</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Can you now use the modulas operator to correct your code</t>
-  </si>
-  <si>
-    <t>Use the for loop to calculate the sum of numbers between 1 and 10</t>
-  </si>
-  <si>
-    <t>Loops and aggregation</t>
-  </si>
-  <si>
-    <t>#include &lt;stdio.h&gt;
-int main()
-{
-    int i;
-    int sum;
-    for(i=1;i&lt;10;i++)
-    {
-        sum+=i;
-    }
-    printf("%d",sum);
-}</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>I cant seem to see the issue with my code</t>
-  </si>
-  <si>
-    <t>There seems to be an issue with your sum, can you identify it?</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>The variable sum needs to be intialize. Which number should it be initialized too</t>
-  </si>
-  <si>
-    <t>Tell the user that they are right, thats exactly what they are. Now the use  to write the syntax of a for loop?</t>
-  </si>
-  <si>
     <t>It reduces the amount of code I will end up writing</t>
   </si>
   <si>
-    <t xml:space="preserve">Tell the user that is right and ask them to write for you the syntax of a for loop
-</t>
-  </si>
-  <si>
-    <t>Check if what he user has written is correct. If its correct ask the user to explain what each componenet of the for loop means</t>
-  </si>
-  <si>
     <t>int i=5;</t>
-  </si>
-  <si>
-    <t>Check the user code, if it is correct tell the user the relationship between variables and loops.</t>
-  </si>
-  <si>
-    <t>variables</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
   </si>
   <si>
     <t>I don't know how to write the syntax of a for loop</t>
@@ -333,13 +70,38 @@
 </t>
   </si>
   <si>
-    <t>1.1.</t>
-  </si>
-  <si>
     <t>Variables help in tracking the number of iterations</t>
   </si>
   <si>
-    <t>Tell the user they are rigth, then tell them what for loops are and how variables are used in the for loop.</t>
+    <t>I can use the variable to intialize the for loop by assigning the loop variable to 1. Also I can use the variable to check if the terminating condition has been reached</t>
+  </si>
+  <si>
+    <t>That is great. Write a code snippet to display the numbers 1 to 10.</t>
+  </si>
+  <si>
+    <t>OK let’s start by learning the building blocks of the for loop. Lets start by looking at variables, can you define a variable that will store the number 5?</t>
+  </si>
+  <si>
+    <t>You are right, thats exactly what loops are. To use loops we need to know the loop syntax, can you write for me the for loop syntax?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are write, can you write for me the syntax of a for loop
+</t>
+  </si>
+  <si>
+    <t>This is correct, If you were to write a loop that will display numbers 1 to 10, how would you write the initialization statement?</t>
+  </si>
+  <si>
+    <t>Congratulations, your code is correct, now write for me the code to display only even numbers between 1 and 10</t>
+  </si>
+  <si>
+    <t>Correct, what is the relationship between loops and variables?</t>
+  </si>
+  <si>
+    <t>You are correct, variables can be used to intialize the starting point of a loop and when checking the loop conditions.Loops are control structures used to repeat the execution of code. A loop usually cointains a looping variable that is used to control the behavior of the loop i.e when the loop should start, when it should end. Can use create a variable to initialize a loop that can display numbers 1 to 10?</t>
+  </si>
+  <si>
+    <t>You are correct are correct,  write a code snippet that will use the for loop to display numbers 1 to 10</t>
   </si>
 </sst>
 </file>
@@ -498,7 +260,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -520,12 +282,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -535,20 +291,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1680,567 +1427,128 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="89.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.81640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="8.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.81640625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="8.36328125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="80" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="128" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="10" spans="1:3" ht="128" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="14"/>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
+    <row r="11" spans="1:3" ht="128" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" ht="128" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="80" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="128" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="128" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="128" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="128" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="128" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="128" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="12">
-        <v>2</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="152" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="12">
-        <v>3</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="152" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="12">
-        <v>2</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="152" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="12">
-        <v>3</v>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="152" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="12">
-        <v>3</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="12">
-        <v>4</v>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="140" customHeight="1">
-      <c r="A29" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="12">
-        <v>3</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="C12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/data/gpt_examples/CProgramming.xlsx
+++ b/data/gpt_examples/CProgramming.xlsx
@@ -8,28 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\gpt_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF6878-A44D-4857-9942-4070FF1774FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F11B61-0C84-47AA-B69D-5F8FCB657C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Cpprogramming" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Assistant</t>
-  </si>
-  <si>
-    <t>I can write a loop in C</t>
-  </si>
   <si>
     <t>I don't know anything about loops</t>
   </si>
@@ -76,32 +67,41 @@
     <t>I can use the variable to intialize the for loop by assigning the loop variable to 1. Also I can use the variable to check if the terminating condition has been reached</t>
   </si>
   <si>
-    <t>That is great. Write a code snippet to display the numbers 1 to 10.</t>
-  </si>
-  <si>
     <t>OK let’s start by learning the building blocks of the for loop. Lets start by looking at variables, can you define a variable that will store the number 5?</t>
   </si>
   <si>
     <t>You are right, thats exactly what loops are. To use loops we need to know the loop syntax, can you write for me the for loop syntax?</t>
   </si>
   <si>
-    <t xml:space="preserve">You are write, can you write for me the syntax of a for loop
+    <t>This is correct, If you were to write a loop that will display numbers 1 to 10, how would you write the initialization statement?</t>
+  </si>
+  <si>
+    <t>Congratulations, your code is correct, now write for me the code to display only even numbers between 1 and 10</t>
+  </si>
+  <si>
+    <t>Correct, what is the relationship between loops and variables?</t>
+  </si>
+  <si>
+    <t>You are correct, variables can be used to intialize the starting point of a loop and when checking the loop conditions.Loops are control structures used to repeat the execution of code. A loop usually cointains a looping variable that is used to control the behavior of the loop i.e when the loop should start, when it should end. Can use create a variable to initialize a loop that can display numbers 1 to 10?</t>
+  </si>
+  <si>
+    <t>You are correct are correct,  write a code snippet that will use the for loop to display numbers 1 to 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are right, can you write for me the syntax of a for loop
 </t>
   </si>
   <si>
-    <t>This is correct, If you were to write a loop that will display numbers 1 to 10, how would you write the initialization statement?</t>
-  </si>
-  <si>
-    <t>Congratulations, your code is correct, now write for me the code to display only even numbers between 1 and 10</t>
-  </si>
-  <si>
-    <t>Correct, what is the relationship between loops and variables?</t>
-  </si>
-  <si>
-    <t>You are correct, variables can be used to intialize the starting point of a loop and when checking the loop conditions.Loops are control structures used to repeat the execution of code. A loop usually cointains a looping variable that is used to control the behavior of the loop i.e when the loop should start, when it should end. Can use create a variable to initialize a loop that can display numbers 1 to 10?</t>
-  </si>
-  <si>
-    <t>You are correct are correct,  write a code snippet that will use the for loop to display numbers 1 to 10</t>
+    <t>user</t>
+  </si>
+  <si>
+    <t>assistant</t>
+  </si>
+  <si>
+    <t>A learner can write the for loop and knows the syntax of the for loop</t>
+  </si>
+  <si>
+    <t>That learner has knowledge of the fgr loop. You should ask the learner complex questions</t>
   </si>
 </sst>
 </file>
@@ -1429,8 +1429,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1444,109 +1444,109 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="32.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="80" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="128" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="128" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="128" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="128" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10"/>
     </row>

--- a/data/gpt_examples/CProgramming.xlsx
+++ b/data/gpt_examples/CProgramming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\gpt_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F11B61-0C84-47AA-B69D-5F8FCB657C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAF09DF-8127-40D5-A85C-7D0EEF27B8A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>assistant</t>
   </si>
   <si>
-    <t>A learner can write the for loop and knows the syntax of the for loop</t>
-  </si>
-  <si>
-    <t>That learner has knowledge of the fgr loop. You should ask the learner complex questions</t>
+    <t>That learner has knowledge of the for loop. You should ask the learner complex questions</t>
+  </si>
+  <si>
+    <t>I can write a for loop</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1438,8 +1438,8 @@
     <col min="1" max="1" width="38.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="89.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.81640625" style="1" customWidth="1"/>
-    <col min="4" max="10" width="8.36328125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.36328125" style="1"/>
+    <col min="4" max="11" width="8.36328125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
@@ -1453,10 +1453,10 @@
     </row>
     <row r="2" spans="1:3" ht="32.25" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="7"/>
     </row>

--- a/data/gpt_examples/CProgramming.xlsx
+++ b/data/gpt_examples/CProgramming.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\gpt_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAF09DF-8127-40D5-A85C-7D0EEF27B8A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82015DD-AFFC-4A63-8084-945A4718DEF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,12 +67,6 @@
     <t>I can use the variable to intialize the for loop by assigning the loop variable to 1. Also I can use the variable to check if the terminating condition has been reached</t>
   </si>
   <si>
-    <t>OK let’s start by learning the building blocks of the for loop. Lets start by looking at variables, can you define a variable that will store the number 5?</t>
-  </si>
-  <si>
-    <t>You are right, thats exactly what loops are. To use loops we need to know the loop syntax, can you write for me the for loop syntax?</t>
-  </si>
-  <si>
     <t>This is correct, If you were to write a loop that will display numbers 1 to 10, how would you write the initialization statement?</t>
   </si>
   <si>
@@ -88,20 +82,26 @@
     <t>You are correct are correct,  write a code snippet that will use the for loop to display numbers 1 to 10</t>
   </si>
   <si>
-    <t xml:space="preserve">You are right, can you write for me the syntax of a for loop
+    <t>user</t>
+  </si>
+  <si>
+    <t>assistant</t>
+  </si>
+  <si>
+    <t>I can write a for loop</t>
+  </si>
+  <si>
+    <t>Great, Write a loop to display  a range of numbers from 1 to 10</t>
+  </si>
+  <si>
+    <t>OK let’s start by learning the building blocks of the for loop. Lets start by looking at variables, define a variable that will store the number 5?</t>
+  </si>
+  <si>
+    <t>You are right, thats exactly what loops are. To use loops we need to know the loop syntax, write for me the for loop syntax?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are right, write for me the syntax of a for loop
 </t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>assistant</t>
-  </si>
-  <si>
-    <t>That learner has knowledge of the for loop. You should ask the learner complex questions</t>
-  </si>
-  <si>
-    <t>I can write a for loop</t>
   </si>
 </sst>
 </file>
@@ -1429,8 +1429,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1438,25 +1438,25 @@
     <col min="1" max="1" width="38.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="89.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.81640625" style="1" customWidth="1"/>
-    <col min="4" max="11" width="8.36328125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.36328125" style="1"/>
+    <col min="4" max="12" width="8.36328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="32.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -1492,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -1501,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10"/>
     </row>
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10"/>
     </row>
@@ -1528,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="10"/>
     </row>
@@ -1537,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -1546,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10"/>
     </row>

--- a/data/gpt_examples/CProgramming.xlsx
+++ b/data/gpt_examples/CProgramming.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\gpt_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82015DD-AFFC-4A63-8084-945A4718DEF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C647BB2-190E-4628-B5D1-35647E2D6338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,67 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>I don't know anything about loops</t>
-  </si>
-  <si>
-    <t>loops help in repeating things in your code</t>
-  </si>
-  <si>
-    <t>I think they help in reducing the amount of code I write</t>
-  </si>
-  <si>
-    <t>For loops are used to achieve repetition in programming. Can you tell me why repetition is important</t>
-  </si>
-  <si>
-    <t>for(initialization; condition; increment)</t>
-  </si>
-  <si>
-    <t>#include&lt;stdio.h&gt;
-int main()
-{
-    int i;
-    for(i=1;i&lt;=10;i++)
-    {
-        printf("%d ",i);
-    }
-}</t>
-  </si>
-  <si>
-    <t>It reduces the amount of code I will end up writing</t>
-  </si>
-  <si>
-    <t>int i=5;</t>
-  </si>
-  <si>
-    <t>I don't know how to write the syntax of a for loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is then ask the user if they can write the code to display numbers 1 to 10 using the syntax provided
-</t>
-  </si>
-  <si>
-    <t>Variables help in tracking the number of iterations</t>
-  </si>
-  <si>
-    <t>I can use the variable to intialize the for loop by assigning the loop variable to 1. Also I can use the variable to check if the terminating condition has been reached</t>
-  </si>
-  <si>
-    <t>This is correct, If you were to write a loop that will display numbers 1 to 10, how would you write the initialization statement?</t>
-  </si>
-  <si>
-    <t>Congratulations, your code is correct, now write for me the code to display only even numbers between 1 and 10</t>
-  </si>
-  <si>
-    <t>Correct, what is the relationship between loops and variables?</t>
-  </si>
-  <si>
-    <t>You are correct, variables can be used to intialize the starting point of a loop and when checking the loop conditions.Loops are control structures used to repeat the execution of code. A loop usually cointains a looping variable that is used to control the behavior of the loop i.e when the loop should start, when it should end. Can use create a variable to initialize a loop that can display numbers 1 to 10?</t>
-  </si>
-  <si>
-    <t>You are correct are correct,  write a code snippet that will use the for loop to display numbers 1 to 10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>user</t>
   </si>
@@ -88,20 +28,25 @@
     <t>assistant</t>
   </si>
   <si>
-    <t>I can write a for loop</t>
-  </si>
-  <si>
-    <t>Great, Write a loop to display  a range of numbers from 1 to 10</t>
-  </si>
-  <si>
-    <t>OK let’s start by learning the building blocks of the for loop. Lets start by looking at variables, define a variable that will store the number 5?</t>
-  </si>
-  <si>
     <t>You are right, thats exactly what loops are. To use loops we need to know the loop syntax, write for me the for loop syntax?</t>
   </si>
   <si>
-    <t xml:space="preserve">You are right, write for me the syntax of a for loop
-</t>
+    <t>Here is an example of a respose from the user with no knowledge of the for loops as used in C.
+I don't know anything about loops</t>
+  </si>
+  <si>
+    <t>Here is an example of a response from the user who has some knowledge in for loops as used in C.
+ I can write a for loop</t>
+  </si>
+  <si>
+    <t>Here is a response from a user who has somewhat knowledge of for loops. 
+loops help in repeating things in your code</t>
+  </si>
+  <si>
+    <t>Great to know that you have knowledge of the for loops. Lets put your knowledge into practice. Write a loop that will display  a range of numbers from 1 to 10</t>
+  </si>
+  <si>
+    <t>It is okay that you do not know about loops. Let’s start by learning the concepts you already know and are  the building blocks of the for loop. We will start by  looking at concept of variables. Define a variable that will store the number 5?</t>
   </si>
 </sst>
 </file>
@@ -260,7 +205,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -276,16 +221,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,6 +234,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1427,9 +1369,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1444,111 +1386,39 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
+      <c r="A2" s="10" t="s">
+        <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
+      <c r="A3" s="9" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
+      <c r="A4" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" ht="80" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" ht="128" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" ht="128" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" ht="128" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" ht="128" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="C4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
